--- a/schemaLabyritnthe.xlsx
+++ b/schemaLabyritnthe.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HUBERF_INFO\Documents\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HUBERF_INFO\Documents\Lost-n-Furious\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -88,7 +88,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.39997558519241921"/>
+        <fgColor theme="4" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -200,7 +200,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -219,6 +219,7 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
@@ -500,25 +501,41 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:S18"/>
+  <dimension ref="A1:S19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="AA7" sqref="AA7"/>
+      <selection activeCell="E23" sqref="E23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.7109375" style="18" bestFit="1" customWidth="1"/>
     <col min="2" max="33" width="3.28515625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="I1" t="s">
+      <c r="B1" s="18"/>
+      <c r="C1" s="18"/>
+      <c r="D1" s="18"/>
+      <c r="E1" s="18"/>
+      <c r="F1" s="18"/>
+      <c r="G1" s="18"/>
+      <c r="H1" s="18"/>
+      <c r="I1" s="18" t="s">
         <v>1</v>
       </c>
-      <c r="J1" t="s">
+      <c r="J1" s="18" t="s">
         <v>3</v>
       </c>
+      <c r="K1" s="18"/>
+      <c r="L1" s="18"/>
+      <c r="M1" s="18"/>
+      <c r="N1" s="18"/>
+      <c r="O1" s="18"/>
+      <c r="P1" s="18"/>
+      <c r="Q1" s="18"/>
+      <c r="R1" s="18"/>
+      <c r="S1" s="18"/>
     </row>
     <row r="2" spans="1:19" x14ac:dyDescent="0.25">
       <c r="B2" s="7"/>
@@ -537,6 +554,8 @@
       <c r="O2" s="8"/>
       <c r="P2" s="8"/>
       <c r="Q2" s="9"/>
+      <c r="R2" s="18"/>
+      <c r="S2" s="18"/>
     </row>
     <row r="3" spans="1:19" x14ac:dyDescent="0.25">
       <c r="B3" s="6"/>
@@ -555,6 +574,8 @@
       <c r="O3" s="1"/>
       <c r="P3" s="15"/>
       <c r="Q3" s="10"/>
+      <c r="R3" s="18"/>
+      <c r="S3" s="18"/>
     </row>
     <row r="4" spans="1:19" x14ac:dyDescent="0.25">
       <c r="B4" s="6"/>
@@ -573,6 +594,8 @@
       <c r="O4" s="1"/>
       <c r="P4" s="1"/>
       <c r="Q4" s="10"/>
+      <c r="R4" s="18"/>
+      <c r="S4" s="18"/>
     </row>
     <row r="5" spans="1:19" x14ac:dyDescent="0.25">
       <c r="B5" s="6"/>
@@ -591,6 +614,8 @@
       <c r="O5" s="15"/>
       <c r="P5" s="1"/>
       <c r="Q5" s="10"/>
+      <c r="R5" s="18"/>
+      <c r="S5" s="18"/>
     </row>
     <row r="6" spans="1:19" x14ac:dyDescent="0.25">
       <c r="B6" s="6"/>
@@ -609,6 +634,8 @@
       <c r="O6" s="1"/>
       <c r="P6" s="1"/>
       <c r="Q6" s="10"/>
+      <c r="R6" s="18"/>
+      <c r="S6" s="18"/>
     </row>
     <row r="7" spans="1:19" x14ac:dyDescent="0.25">
       <c r="B7" s="6"/>
@@ -627,6 +654,8 @@
       <c r="O7" s="15"/>
       <c r="P7" s="15"/>
       <c r="Q7" s="10"/>
+      <c r="R7" s="18"/>
+      <c r="S7" s="18"/>
     </row>
     <row r="8" spans="1:19" x14ac:dyDescent="0.25">
       <c r="B8" s="6"/>
@@ -645,6 +674,8 @@
       <c r="O8" s="15"/>
       <c r="P8" s="1"/>
       <c r="Q8" s="10"/>
+      <c r="R8" s="18"/>
+      <c r="S8" s="18"/>
     </row>
     <row r="9" spans="1:19" x14ac:dyDescent="0.25">
       <c r="B9" s="6"/>
@@ -663,6 +694,8 @@
       <c r="O9" s="1"/>
       <c r="P9" s="1"/>
       <c r="Q9" s="10"/>
+      <c r="R9" s="18"/>
+      <c r="S9" s="18"/>
     </row>
     <row r="10" spans="1:19" x14ac:dyDescent="0.25">
       <c r="B10" s="6"/>
@@ -681,6 +714,8 @@
       <c r="O10" s="15"/>
       <c r="P10" s="1"/>
       <c r="Q10" s="10"/>
+      <c r="R10" s="18"/>
+      <c r="S10" s="18"/>
     </row>
     <row r="11" spans="1:19" x14ac:dyDescent="0.25">
       <c r="B11" s="6"/>
@@ -699,6 +734,8 @@
       <c r="O11" s="15"/>
       <c r="P11" s="1"/>
       <c r="Q11" s="10"/>
+      <c r="R11" s="18"/>
+      <c r="S11" s="18"/>
     </row>
     <row r="12" spans="1:19" x14ac:dyDescent="0.25">
       <c r="B12" s="6"/>
@@ -717,6 +754,8 @@
       <c r="O12" s="15"/>
       <c r="P12" s="1"/>
       <c r="Q12" s="10"/>
+      <c r="R12" s="18"/>
+      <c r="S12" s="18"/>
     </row>
     <row r="13" spans="1:19" x14ac:dyDescent="0.25">
       <c r="B13" s="6"/>
@@ -735,9 +774,11 @@
       <c r="O13" s="1"/>
       <c r="P13" s="1"/>
       <c r="Q13" s="10"/>
+      <c r="R13" s="18"/>
+      <c r="S13" s="18"/>
     </row>
     <row r="14" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
+      <c r="A14" s="18" t="s">
         <v>3</v>
       </c>
       <c r="B14" s="6"/>
@@ -756,9 +797,11 @@
       <c r="O14" s="15"/>
       <c r="P14" s="15"/>
       <c r="Q14" s="10"/>
+      <c r="R14" s="18"/>
+      <c r="S14" s="18"/>
     </row>
     <row r="15" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
+      <c r="A15" s="18" t="s">
         <v>0</v>
       </c>
       <c r="B15" s="14"/>
@@ -777,10 +820,10 @@
       <c r="O15" s="15"/>
       <c r="P15" s="1"/>
       <c r="Q15" s="12"/>
-      <c r="R15" t="s">
+      <c r="R15" s="18" t="s">
         <v>2</v>
       </c>
-      <c r="S15" t="s">
+      <c r="S15" s="18" t="s">
         <v>4</v>
       </c>
     </row>
@@ -801,8 +844,10 @@
       <c r="O16" s="1"/>
       <c r="P16" s="1"/>
       <c r="Q16" s="10"/>
-    </row>
-    <row r="17" spans="2:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="R16" s="18"/>
+      <c r="S16" s="18"/>
+    </row>
+    <row r="17" spans="2:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B17" s="2"/>
       <c r="C17" s="3"/>
       <c r="D17" s="3"/>
@@ -819,9 +864,31 @@
       <c r="O17" s="4"/>
       <c r="P17" s="4"/>
       <c r="Q17" s="5"/>
-    </row>
-    <row r="18" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="I18" s="18"/>
+      <c r="R17" s="18"/>
+      <c r="S17" s="18"/>
+    </row>
+    <row r="18" spans="2:19" s="18" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="I18" s="19"/>
+    </row>
+    <row r="19" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B19" s="18"/>
+      <c r="C19" s="18"/>
+      <c r="D19" s="18"/>
+      <c r="E19" s="18"/>
+      <c r="F19" s="18"/>
+      <c r="G19" s="18"/>
+      <c r="H19" s="18"/>
+      <c r="I19" s="18"/>
+      <c r="J19" s="18"/>
+      <c r="K19" s="18"/>
+      <c r="L19" s="18"/>
+      <c r="M19" s="18"/>
+      <c r="N19" s="18"/>
+      <c r="O19" s="18"/>
+      <c r="P19" s="18"/>
+      <c r="Q19" s="18"/>
+      <c r="R19" s="18"/>
+      <c r="S19" s="18"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/schemaLabyritnthe.xlsx
+++ b/schemaLabyritnthe.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HUBERF_INFO\Documents\Lost-n-Furious\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\GOUVEIAA_INFO\Desktop\Lost'n Furious\Lost-n-Furious\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -45,7 +45,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -56,6 +56,13 @@
     <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -93,7 +100,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="10">
+  <borders count="8">
     <border>
       <left/>
       <right/>
@@ -137,17 +144,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
       <left style="medium">
         <color indexed="64"/>
       </left>
@@ -166,17 +162,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
@@ -200,27 +185,24 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -504,391 +486,484 @@
   <dimension ref="A1:S19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E23" sqref="E23"/>
+      <selection activeCell="Q2" sqref="Q2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.7109375" style="18" bestFit="1" customWidth="1"/>
-    <col min="2" max="33" width="3.28515625" customWidth="1"/>
+    <col min="1" max="1" width="4.28515625" style="1" customWidth="1"/>
+    <col min="2" max="18" width="4.28515625" customWidth="1"/>
+    <col min="19" max="33" width="3.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B1" s="18"/>
-      <c r="C1" s="18"/>
-      <c r="D1" s="18"/>
-      <c r="E1" s="18"/>
-      <c r="F1" s="18"/>
-      <c r="G1" s="18"/>
-      <c r="H1" s="18"/>
-      <c r="I1" s="18" t="s">
+    <row r="1" spans="1:19" ht="26.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B1" s="1"/>
+      <c r="C1" s="1"/>
+      <c r="D1" s="1"/>
+      <c r="E1" s="1"/>
+      <c r="F1" s="1"/>
+      <c r="G1" s="1"/>
+      <c r="H1" s="1"/>
+      <c r="I1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="J1" s="18" t="s">
+      <c r="J1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="K1" s="18"/>
-      <c r="L1" s="18"/>
-      <c r="M1" s="18"/>
-      <c r="N1" s="18"/>
-      <c r="O1" s="18"/>
-      <c r="P1" s="18"/>
-      <c r="Q1" s="18"/>
-      <c r="R1" s="18"/>
-      <c r="S1" s="18"/>
-    </row>
-    <row r="2" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="B2" s="7"/>
-      <c r="C2" s="8"/>
-      <c r="D2" s="8"/>
-      <c r="E2" s="8"/>
-      <c r="F2" s="8"/>
-      <c r="G2" s="8"/>
-      <c r="H2" s="8"/>
-      <c r="I2" s="13"/>
-      <c r="J2" s="8"/>
-      <c r="K2" s="8"/>
-      <c r="L2" s="8"/>
-      <c r="M2" s="8"/>
-      <c r="N2" s="8"/>
-      <c r="O2" s="8"/>
-      <c r="P2" s="8"/>
-      <c r="Q2" s="9"/>
-      <c r="R2" s="18"/>
-      <c r="S2" s="18"/>
-    </row>
-    <row r="3" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="B3" s="6"/>
-      <c r="C3" s="1"/>
-      <c r="D3" s="15"/>
-      <c r="E3" s="15"/>
-      <c r="F3" s="15"/>
-      <c r="G3" s="1"/>
-      <c r="H3" s="1"/>
-      <c r="I3" s="1"/>
-      <c r="J3" s="15"/>
-      <c r="K3" s="1"/>
-      <c r="L3" s="15"/>
-      <c r="M3" s="1"/>
-      <c r="N3" s="15"/>
-      <c r="O3" s="1"/>
-      <c r="P3" s="15"/>
-      <c r="Q3" s="10"/>
-      <c r="R3" s="18"/>
-      <c r="S3" s="18"/>
-    </row>
-    <row r="4" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="B4" s="6"/>
-      <c r="C4" s="1"/>
-      <c r="D4" s="15"/>
-      <c r="E4" s="15"/>
-      <c r="F4" s="1"/>
-      <c r="G4" s="1"/>
-      <c r="H4" s="15"/>
-      <c r="I4" s="1"/>
-      <c r="J4" s="1"/>
-      <c r="K4" s="1"/>
-      <c r="L4" s="15"/>
-      <c r="M4" s="1"/>
-      <c r="N4" s="15"/>
-      <c r="O4" s="1"/>
-      <c r="P4" s="1"/>
-      <c r="Q4" s="10"/>
-      <c r="R4" s="18"/>
-      <c r="S4" s="18"/>
-    </row>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="B5" s="6"/>
-      <c r="C5" s="1"/>
-      <c r="D5" s="1"/>
-      <c r="E5" s="1"/>
-      <c r="F5" s="1"/>
-      <c r="G5" s="15"/>
-      <c r="H5" s="15"/>
-      <c r="I5" s="15"/>
-      <c r="J5" s="17"/>
-      <c r="K5" s="15"/>
-      <c r="L5" s="15"/>
-      <c r="M5" s="1"/>
-      <c r="N5" s="16"/>
-      <c r="O5" s="15"/>
-      <c r="P5" s="1"/>
-      <c r="Q5" s="10"/>
-      <c r="R5" s="18"/>
-      <c r="S5" s="18"/>
-    </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="B6" s="6"/>
-      <c r="C6" s="1"/>
-      <c r="D6" s="15"/>
-      <c r="E6" s="1"/>
-      <c r="F6" s="15"/>
-      <c r="G6" s="15"/>
-      <c r="H6" s="1"/>
-      <c r="I6" s="1"/>
-      <c r="J6" s="1"/>
-      <c r="K6" s="1"/>
-      <c r="L6" s="1"/>
-      <c r="M6" s="1"/>
-      <c r="N6" s="1"/>
-      <c r="O6" s="1"/>
-      <c r="P6" s="1"/>
-      <c r="Q6" s="10"/>
-      <c r="R6" s="18"/>
-      <c r="S6" s="18"/>
-    </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="B7" s="6"/>
-      <c r="C7" s="1"/>
-      <c r="D7" s="15"/>
-      <c r="E7" s="1"/>
-      <c r="F7" s="1"/>
-      <c r="G7" s="15"/>
-      <c r="H7" s="15"/>
-      <c r="I7" s="15"/>
-      <c r="J7" s="15"/>
-      <c r="K7" s="15"/>
-      <c r="L7" s="1"/>
-      <c r="M7" s="15"/>
-      <c r="N7" s="15"/>
-      <c r="O7" s="15"/>
-      <c r="P7" s="15"/>
-      <c r="Q7" s="10"/>
-      <c r="R7" s="18"/>
-      <c r="S7" s="18"/>
-    </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="B8" s="6"/>
-      <c r="C8" s="15"/>
-      <c r="D8" s="15"/>
-      <c r="E8" s="15"/>
-      <c r="F8" s="1"/>
-      <c r="G8" s="1"/>
-      <c r="H8" s="1"/>
-      <c r="I8" s="1"/>
-      <c r="J8" s="1"/>
-      <c r="K8" s="15"/>
-      <c r="L8" s="1"/>
-      <c r="M8" s="15"/>
-      <c r="N8" s="15"/>
-      <c r="O8" s="15"/>
-      <c r="P8" s="1"/>
-      <c r="Q8" s="10"/>
-      <c r="R8" s="18"/>
-      <c r="S8" s="18"/>
-    </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="B9" s="6"/>
-      <c r="C9" s="15"/>
-      <c r="D9" s="1"/>
-      <c r="E9" s="1"/>
-      <c r="F9" s="1"/>
-      <c r="G9" s="15"/>
-      <c r="H9" s="15"/>
-      <c r="I9" s="15"/>
-      <c r="J9" s="1"/>
-      <c r="K9" s="15"/>
-      <c r="L9" s="1"/>
-      <c r="M9" s="15"/>
-      <c r="N9" s="1"/>
-      <c r="O9" s="1"/>
-      <c r="P9" s="1"/>
-      <c r="Q9" s="10"/>
-      <c r="R9" s="18"/>
-      <c r="S9" s="18"/>
-    </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="B10" s="6"/>
-      <c r="C10" s="1"/>
-      <c r="D10" s="1"/>
-      <c r="E10" s="15"/>
-      <c r="F10" s="1"/>
-      <c r="G10" s="1"/>
-      <c r="H10" s="1"/>
-      <c r="I10" s="1"/>
-      <c r="J10" s="1"/>
-      <c r="K10" s="17"/>
-      <c r="L10" s="1"/>
-      <c r="M10" s="15"/>
-      <c r="N10" s="1"/>
-      <c r="O10" s="15"/>
-      <c r="P10" s="1"/>
-      <c r="Q10" s="10"/>
-      <c r="R10" s="18"/>
-      <c r="S10" s="18"/>
-    </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="B11" s="6"/>
-      <c r="C11" s="1"/>
-      <c r="D11" s="15"/>
-      <c r="E11" s="15"/>
-      <c r="F11" s="15"/>
-      <c r="G11" s="15"/>
-      <c r="H11" s="15"/>
-      <c r="I11" s="15"/>
-      <c r="J11" s="1"/>
-      <c r="K11" s="15"/>
-      <c r="L11" s="1"/>
-      <c r="M11" s="1"/>
-      <c r="N11" s="1"/>
-      <c r="O11" s="15"/>
-      <c r="P11" s="1"/>
-      <c r="Q11" s="10"/>
-      <c r="R11" s="18"/>
-      <c r="S11" s="18"/>
-    </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="B12" s="6"/>
-      <c r="C12" s="1"/>
-      <c r="D12" s="17"/>
-      <c r="E12" s="15"/>
-      <c r="F12" s="17"/>
-      <c r="G12" s="1"/>
-      <c r="H12" s="15"/>
-      <c r="I12" s="1"/>
-      <c r="J12" s="1"/>
-      <c r="K12" s="15"/>
-      <c r="L12" s="15"/>
-      <c r="M12" s="15"/>
-      <c r="N12" s="15"/>
-      <c r="O12" s="15"/>
-      <c r="P12" s="1"/>
-      <c r="Q12" s="10"/>
-      <c r="R12" s="18"/>
-      <c r="S12" s="18"/>
-    </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="B13" s="6"/>
-      <c r="C13" s="15"/>
-      <c r="D13" s="17"/>
-      <c r="E13" s="15"/>
-      <c r="F13" s="17"/>
-      <c r="G13" s="15"/>
-      <c r="H13" s="15"/>
-      <c r="I13" s="17"/>
-      <c r="J13" s="15"/>
-      <c r="K13" s="15"/>
-      <c r="L13" s="15"/>
-      <c r="M13" s="15"/>
-      <c r="N13" s="1"/>
-      <c r="O13" s="1"/>
-      <c r="P13" s="1"/>
-      <c r="Q13" s="10"/>
-      <c r="R13" s="18"/>
-      <c r="S13" s="18"/>
-    </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A14" s="18" t="s">
+      <c r="K1" s="1"/>
+      <c r="L1" s="1"/>
+      <c r="M1" s="1"/>
+      <c r="N1" s="1"/>
+      <c r="O1" s="1"/>
+      <c r="P1" s="1"/>
+      <c r="Q1" s="1"/>
+      <c r="R1" s="1"/>
+      <c r="S1" s="1"/>
+    </row>
+    <row r="2" spans="1:19" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B2" s="3">
+        <v>40</v>
+      </c>
+      <c r="C2" s="4">
+        <f>B2+30</f>
+        <v>70</v>
+      </c>
+      <c r="D2" s="4">
+        <f t="shared" ref="D2:Q2" si="0">C2+30</f>
+        <v>100</v>
+      </c>
+      <c r="E2" s="4">
+        <f t="shared" si="0"/>
+        <v>130</v>
+      </c>
+      <c r="F2" s="4">
+        <f t="shared" si="0"/>
+        <v>160</v>
+      </c>
+      <c r="G2" s="4">
+        <f t="shared" si="0"/>
+        <v>190</v>
+      </c>
+      <c r="H2" s="4">
+        <f t="shared" si="0"/>
+        <v>220</v>
+      </c>
+      <c r="I2" s="5">
+        <f t="shared" si="0"/>
+        <v>250</v>
+      </c>
+      <c r="J2" s="4">
+        <f t="shared" si="0"/>
+        <v>280</v>
+      </c>
+      <c r="K2" s="4">
+        <f t="shared" si="0"/>
+        <v>310</v>
+      </c>
+      <c r="L2" s="4">
+        <f t="shared" si="0"/>
+        <v>340</v>
+      </c>
+      <c r="M2" s="4">
+        <f t="shared" si="0"/>
+        <v>370</v>
+      </c>
+      <c r="N2" s="4">
+        <f t="shared" si="0"/>
+        <v>400</v>
+      </c>
+      <c r="O2" s="4">
+        <f t="shared" si="0"/>
+        <v>430</v>
+      </c>
+      <c r="P2" s="4">
+        <f t="shared" si="0"/>
+        <v>460</v>
+      </c>
+      <c r="Q2" s="4">
+        <f t="shared" si="0"/>
+        <v>490</v>
+      </c>
+      <c r="R2" s="1"/>
+      <c r="S2" s="1"/>
+    </row>
+    <row r="3" spans="1:19" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B3" s="6">
+        <f>B2+30</f>
+        <v>70</v>
+      </c>
+      <c r="C3" s="7"/>
+      <c r="D3" s="8"/>
+      <c r="E3" s="8"/>
+      <c r="F3" s="8"/>
+      <c r="G3" s="7"/>
+      <c r="H3" s="7"/>
+      <c r="I3" s="7"/>
+      <c r="J3" s="8"/>
+      <c r="K3" s="7"/>
+      <c r="L3" s="8"/>
+      <c r="M3" s="7"/>
+      <c r="N3" s="8"/>
+      <c r="O3" s="7"/>
+      <c r="P3" s="8"/>
+      <c r="Q3" s="9"/>
+      <c r="R3" s="1"/>
+      <c r="S3" s="1"/>
+    </row>
+    <row r="4" spans="1:19" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B4" s="6">
+        <f t="shared" ref="B4:B17" si="1">B3+30</f>
+        <v>100</v>
+      </c>
+      <c r="C4" s="7"/>
+      <c r="D4" s="8"/>
+      <c r="E4" s="8"/>
+      <c r="F4" s="7"/>
+      <c r="G4" s="7"/>
+      <c r="H4" s="8"/>
+      <c r="I4" s="7"/>
+      <c r="J4" s="7"/>
+      <c r="K4" s="7"/>
+      <c r="L4" s="8"/>
+      <c r="M4" s="7"/>
+      <c r="N4" s="8"/>
+      <c r="O4" s="7"/>
+      <c r="P4" s="7"/>
+      <c r="Q4" s="9"/>
+      <c r="R4" s="1"/>
+      <c r="S4" s="1"/>
+    </row>
+    <row r="5" spans="1:19" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B5" s="6">
+        <f t="shared" si="1"/>
+        <v>130</v>
+      </c>
+      <c r="C5" s="7"/>
+      <c r="D5" s="7"/>
+      <c r="E5" s="7"/>
+      <c r="F5" s="7"/>
+      <c r="G5" s="8"/>
+      <c r="H5" s="8"/>
+      <c r="I5" s="8"/>
+      <c r="J5" s="10"/>
+      <c r="K5" s="8"/>
+      <c r="L5" s="8"/>
+      <c r="M5" s="7"/>
+      <c r="N5" s="11"/>
+      <c r="O5" s="8"/>
+      <c r="P5" s="7"/>
+      <c r="Q5" s="9"/>
+      <c r="R5" s="1"/>
+      <c r="S5" s="1"/>
+    </row>
+    <row r="6" spans="1:19" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B6" s="6">
+        <f t="shared" si="1"/>
+        <v>160</v>
+      </c>
+      <c r="C6" s="7"/>
+      <c r="D6" s="8"/>
+      <c r="E6" s="7"/>
+      <c r="F6" s="8"/>
+      <c r="G6" s="8"/>
+      <c r="H6" s="7"/>
+      <c r="I6" s="7"/>
+      <c r="J6" s="7"/>
+      <c r="K6" s="7"/>
+      <c r="L6" s="7"/>
+      <c r="M6" s="7"/>
+      <c r="N6" s="7"/>
+      <c r="O6" s="7"/>
+      <c r="P6" s="7"/>
+      <c r="Q6" s="9"/>
+      <c r="R6" s="1"/>
+      <c r="S6" s="1"/>
+    </row>
+    <row r="7" spans="1:19" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B7" s="6">
+        <f t="shared" si="1"/>
+        <v>190</v>
+      </c>
+      <c r="C7" s="7"/>
+      <c r="D7" s="8"/>
+      <c r="E7" s="7"/>
+      <c r="F7" s="7"/>
+      <c r="G7" s="8"/>
+      <c r="H7" s="8"/>
+      <c r="I7" s="8"/>
+      <c r="J7" s="8"/>
+      <c r="K7" s="8"/>
+      <c r="L7" s="7"/>
+      <c r="M7" s="8"/>
+      <c r="N7" s="8"/>
+      <c r="O7" s="8"/>
+      <c r="P7" s="8"/>
+      <c r="Q7" s="9"/>
+      <c r="R7" s="1"/>
+      <c r="S7" s="1"/>
+    </row>
+    <row r="8" spans="1:19" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B8" s="6">
+        <f t="shared" si="1"/>
+        <v>220</v>
+      </c>
+      <c r="C8" s="8"/>
+      <c r="D8" s="8"/>
+      <c r="E8" s="8"/>
+      <c r="F8" s="7"/>
+      <c r="G8" s="7"/>
+      <c r="H8" s="7"/>
+      <c r="I8" s="7"/>
+      <c r="J8" s="7"/>
+      <c r="K8" s="8"/>
+      <c r="L8" s="7"/>
+      <c r="M8" s="8"/>
+      <c r="N8" s="8"/>
+      <c r="O8" s="8"/>
+      <c r="P8" s="7"/>
+      <c r="Q8" s="9"/>
+      <c r="R8" s="1"/>
+      <c r="S8" s="1"/>
+    </row>
+    <row r="9" spans="1:19" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B9" s="6">
+        <f t="shared" si="1"/>
+        <v>250</v>
+      </c>
+      <c r="C9" s="8"/>
+      <c r="D9" s="7"/>
+      <c r="E9" s="7"/>
+      <c r="F9" s="7"/>
+      <c r="G9" s="8"/>
+      <c r="H9" s="8"/>
+      <c r="I9" s="8"/>
+      <c r="J9" s="7"/>
+      <c r="K9" s="8"/>
+      <c r="L9" s="7"/>
+      <c r="M9" s="8"/>
+      <c r="N9" s="7"/>
+      <c r="O9" s="7"/>
+      <c r="P9" s="7"/>
+      <c r="Q9" s="9"/>
+      <c r="R9" s="1"/>
+      <c r="S9" s="1"/>
+    </row>
+    <row r="10" spans="1:19" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B10" s="6">
+        <f t="shared" si="1"/>
+        <v>280</v>
+      </c>
+      <c r="C10" s="7"/>
+      <c r="D10" s="7"/>
+      <c r="E10" s="8"/>
+      <c r="F10" s="7"/>
+      <c r="G10" s="7"/>
+      <c r="H10" s="7"/>
+      <c r="I10" s="7"/>
+      <c r="J10" s="7"/>
+      <c r="K10" s="10"/>
+      <c r="L10" s="7"/>
+      <c r="M10" s="8"/>
+      <c r="N10" s="7"/>
+      <c r="O10" s="8"/>
+      <c r="P10" s="7"/>
+      <c r="Q10" s="9"/>
+      <c r="R10" s="1"/>
+      <c r="S10" s="1"/>
+    </row>
+    <row r="11" spans="1:19" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B11" s="6">
+        <f t="shared" si="1"/>
+        <v>310</v>
+      </c>
+      <c r="C11" s="7"/>
+      <c r="D11" s="8"/>
+      <c r="E11" s="8"/>
+      <c r="F11" s="8"/>
+      <c r="G11" s="8"/>
+      <c r="H11" s="8"/>
+      <c r="I11" s="8"/>
+      <c r="J11" s="7"/>
+      <c r="K11" s="8"/>
+      <c r="L11" s="7"/>
+      <c r="M11" s="7"/>
+      <c r="N11" s="7"/>
+      <c r="O11" s="8"/>
+      <c r="P11" s="7"/>
+      <c r="Q11" s="9"/>
+      <c r="R11" s="1"/>
+      <c r="S11" s="1"/>
+    </row>
+    <row r="12" spans="1:19" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B12" s="6">
+        <f t="shared" si="1"/>
+        <v>340</v>
+      </c>
+      <c r="C12" s="7"/>
+      <c r="D12" s="10"/>
+      <c r="E12" s="8"/>
+      <c r="F12" s="10"/>
+      <c r="G12" s="7"/>
+      <c r="H12" s="8"/>
+      <c r="I12" s="7"/>
+      <c r="J12" s="7"/>
+      <c r="K12" s="8"/>
+      <c r="L12" s="8"/>
+      <c r="M12" s="8"/>
+      <c r="N12" s="8"/>
+      <c r="O12" s="8"/>
+      <c r="P12" s="7"/>
+      <c r="Q12" s="9"/>
+      <c r="R12" s="1"/>
+      <c r="S12" s="1"/>
+    </row>
+    <row r="13" spans="1:19" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B13" s="6">
+        <f t="shared" si="1"/>
+        <v>370</v>
+      </c>
+      <c r="C13" s="8"/>
+      <c r="D13" s="10"/>
+      <c r="E13" s="8"/>
+      <c r="F13" s="10"/>
+      <c r="G13" s="8"/>
+      <c r="H13" s="8"/>
+      <c r="I13" s="10"/>
+      <c r="J13" s="8"/>
+      <c r="K13" s="8"/>
+      <c r="L13" s="8"/>
+      <c r="M13" s="8"/>
+      <c r="N13" s="7"/>
+      <c r="O13" s="7"/>
+      <c r="P13" s="7"/>
+      <c r="Q13" s="9"/>
+      <c r="R13" s="1"/>
+      <c r="S13" s="1"/>
+    </row>
+    <row r="14" spans="1:19" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B14" s="6"/>
-      <c r="C14" s="1"/>
-      <c r="D14" s="17"/>
-      <c r="E14" s="15"/>
-      <c r="F14" s="17"/>
-      <c r="G14" s="1"/>
-      <c r="H14" s="1"/>
-      <c r="I14" s="1"/>
-      <c r="J14" s="1"/>
-      <c r="K14" s="1"/>
-      <c r="L14" s="15"/>
-      <c r="M14" s="15"/>
-      <c r="N14" s="1"/>
-      <c r="O14" s="15"/>
-      <c r="P14" s="15"/>
-      <c r="Q14" s="10"/>
-      <c r="R14" s="18"/>
-      <c r="S14" s="18"/>
-    </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A15" s="18" t="s">
+      <c r="B14" s="6">
+        <f t="shared" si="1"/>
+        <v>400</v>
+      </c>
+      <c r="C14" s="7"/>
+      <c r="D14" s="10"/>
+      <c r="E14" s="8"/>
+      <c r="F14" s="10"/>
+      <c r="G14" s="7"/>
+      <c r="H14" s="7"/>
+      <c r="I14" s="7"/>
+      <c r="J14" s="7"/>
+      <c r="K14" s="7"/>
+      <c r="L14" s="8"/>
+      <c r="M14" s="8"/>
+      <c r="N14" s="7"/>
+      <c r="O14" s="8"/>
+      <c r="P14" s="8"/>
+      <c r="Q14" s="9"/>
+      <c r="R14" s="1"/>
+      <c r="S14" s="1"/>
+    </row>
+    <row r="15" spans="1:19" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B15" s="14"/>
-      <c r="C15" s="1"/>
-      <c r="D15" s="15"/>
-      <c r="E15" s="15"/>
-      <c r="F15" s="17"/>
-      <c r="G15" s="15"/>
-      <c r="H15" s="15"/>
-      <c r="I15" s="1"/>
-      <c r="J15" s="15"/>
-      <c r="K15" s="1"/>
-      <c r="L15" s="15"/>
-      <c r="M15" s="15"/>
-      <c r="N15" s="1"/>
-      <c r="O15" s="15"/>
-      <c r="P15" s="1"/>
-      <c r="Q15" s="12"/>
-      <c r="R15" s="18" t="s">
+      <c r="B15" s="12">
+        <f t="shared" si="1"/>
+        <v>430</v>
+      </c>
+      <c r="C15" s="7"/>
+      <c r="D15" s="8"/>
+      <c r="E15" s="8"/>
+      <c r="F15" s="10"/>
+      <c r="G15" s="8"/>
+      <c r="H15" s="8"/>
+      <c r="I15" s="7"/>
+      <c r="J15" s="8"/>
+      <c r="K15" s="7"/>
+      <c r="L15" s="8"/>
+      <c r="M15" s="8"/>
+      <c r="N15" s="7"/>
+      <c r="O15" s="8"/>
+      <c r="P15" s="7"/>
+      <c r="Q15" s="13"/>
+      <c r="R15" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="S15" s="18" t="s">
+      <c r="S15" s="1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="16" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B16" s="6"/>
-      <c r="C16" s="15"/>
-      <c r="D16" s="15"/>
-      <c r="E16" s="15"/>
-      <c r="F16" s="1"/>
-      <c r="G16" s="15"/>
-      <c r="H16" s="15"/>
-      <c r="I16" s="1"/>
-      <c r="J16" s="15"/>
-      <c r="K16" s="1"/>
-      <c r="L16" s="1"/>
-      <c r="M16" s="15"/>
-      <c r="N16" s="1"/>
-      <c r="O16" s="1"/>
-      <c r="P16" s="1"/>
-      <c r="Q16" s="10"/>
-      <c r="R16" s="18"/>
-      <c r="S16" s="18"/>
-    </row>
-    <row r="17" spans="2:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B17" s="2"/>
-      <c r="C17" s="3"/>
-      <c r="D17" s="3"/>
-      <c r="E17" s="3"/>
-      <c r="F17" s="3"/>
-      <c r="G17" s="3"/>
-      <c r="H17" s="3"/>
-      <c r="I17" s="11"/>
-      <c r="J17" s="4"/>
-      <c r="K17" s="4"/>
-      <c r="L17" s="4"/>
-      <c r="M17" s="4"/>
-      <c r="N17" s="4"/>
-      <c r="O17" s="4"/>
-      <c r="P17" s="4"/>
-      <c r="Q17" s="5"/>
-      <c r="R17" s="18"/>
-      <c r="S17" s="18"/>
-    </row>
-    <row r="18" spans="2:19" s="18" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="I18" s="19"/>
+    <row r="16" spans="1:19" ht="26.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B16" s="6">
+        <f t="shared" si="1"/>
+        <v>460</v>
+      </c>
+      <c r="C16" s="8"/>
+      <c r="D16" s="8"/>
+      <c r="E16" s="8"/>
+      <c r="F16" s="7"/>
+      <c r="G16" s="8"/>
+      <c r="H16" s="8"/>
+      <c r="I16" s="7"/>
+      <c r="J16" s="8"/>
+      <c r="K16" s="7"/>
+      <c r="L16" s="7"/>
+      <c r="M16" s="8"/>
+      <c r="N16" s="7"/>
+      <c r="O16" s="7"/>
+      <c r="P16" s="7"/>
+      <c r="Q16" s="9"/>
+      <c r="R16" s="1"/>
+      <c r="S16" s="1"/>
+    </row>
+    <row r="17" spans="2:19" ht="26.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B17" s="6">
+        <f t="shared" si="1"/>
+        <v>490</v>
+      </c>
+      <c r="C17" s="14"/>
+      <c r="D17" s="14"/>
+      <c r="E17" s="14"/>
+      <c r="F17" s="14"/>
+      <c r="G17" s="14"/>
+      <c r="H17" s="14"/>
+      <c r="I17" s="15"/>
+      <c r="J17" s="14"/>
+      <c r="K17" s="14"/>
+      <c r="L17" s="14"/>
+      <c r="M17" s="14"/>
+      <c r="N17" s="14"/>
+      <c r="O17" s="14"/>
+      <c r="P17" s="14"/>
+      <c r="Q17" s="16"/>
+      <c r="R17" s="1"/>
+      <c r="S17" s="1"/>
+    </row>
+    <row r="18" spans="2:19" s="1" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I18" s="2"/>
     </row>
     <row r="19" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B19" s="18"/>
-      <c r="C19" s="18"/>
-      <c r="D19" s="18"/>
-      <c r="E19" s="18"/>
-      <c r="F19" s="18"/>
-      <c r="G19" s="18"/>
-      <c r="H19" s="18"/>
-      <c r="I19" s="18"/>
-      <c r="J19" s="18"/>
-      <c r="K19" s="18"/>
-      <c r="L19" s="18"/>
-      <c r="M19" s="18"/>
-      <c r="N19" s="18"/>
-      <c r="O19" s="18"/>
-      <c r="P19" s="18"/>
-      <c r="Q19" s="18"/>
-      <c r="R19" s="18"/>
-      <c r="S19" s="18"/>
+      <c r="B19" s="1"/>
+      <c r="C19" s="1"/>
+      <c r="D19" s="1"/>
+      <c r="E19" s="1"/>
+      <c r="F19" s="1"/>
+      <c r="G19" s="1"/>
+      <c r="H19" s="1"/>
+      <c r="I19" s="1"/>
+      <c r="J19" s="1"/>
+      <c r="K19" s="1"/>
+      <c r="L19" s="1"/>
+      <c r="M19" s="1"/>
+      <c r="N19" s="1"/>
+      <c r="O19" s="1"/>
+      <c r="P19" s="1"/>
+      <c r="Q19" s="1"/>
+      <c r="R19" s="1"/>
+      <c r="S19" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/schemaLabyritnthe.xlsx
+++ b/schemaLabyritnthe.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\GOUVEIAA_INFO\Desktop\Lost'n Furious\Lost-n-Furious\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Administrateur\Documents\Lost-n-Furious\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -185,24 +185,59 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -486,14 +521,15 @@
   <dimension ref="A1:S19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="Q2" sqref="Q2"/>
+      <selection activeCell="H12" sqref="H12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="4.28515625" style="1" customWidth="1"/>
-    <col min="2" max="18" width="4.28515625" customWidth="1"/>
-    <col min="19" max="33" width="3.28515625" customWidth="1"/>
+    <col min="2" max="18" width="4.28515625" style="2" customWidth="1"/>
+    <col min="19" max="33" width="3.28515625" style="2" customWidth="1"/>
+    <col min="34" max="16384" width="11.42578125" style="2"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:19" ht="26.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -943,7 +979,7 @@
       <c r="S17" s="1"/>
     </row>
     <row r="18" spans="2:19" s="1" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="I18" s="2"/>
+      <c r="I18" s="17"/>
     </row>
     <row r="19" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B19" s="1"/>

--- a/schemaLabyritnthe.xlsx
+++ b/schemaLabyritnthe.xlsx
@@ -1,20 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18431"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Administrateur\Documents\Lost-n-Furious\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Programmation\C#\Lost-n-Furious\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25200" windowHeight="11880"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25200" windowHeight="11880" activeTab="2"/>
   </bookViews>
   <sheets>
-    <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
+    <sheet name="LabyrintheMoyen" sheetId="1" r:id="rId1"/>
+    <sheet name="LabyrinthePetit" sheetId="2" r:id="rId2"/>
+    <sheet name="LabyrintheGrand" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="171027"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -520,19 +522,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:S19"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H12" sqref="H12"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="4.28515625" style="1" customWidth="1"/>
-    <col min="2" max="18" width="4.28515625" style="2" customWidth="1"/>
-    <col min="19" max="33" width="3.28515625" style="2" customWidth="1"/>
-    <col min="34" max="16384" width="11.42578125" style="2"/>
+    <col min="1" max="1" width="4.33203125" style="1" customWidth="1"/>
+    <col min="2" max="18" width="4.33203125" style="2" customWidth="1"/>
+    <col min="19" max="33" width="3.33203125" style="2" customWidth="1"/>
+    <col min="34" max="16384" width="11.44140625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" ht="26.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:19" ht="26.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
       <c r="D1" s="1"/>
@@ -556,7 +558,7 @@
       <c r="R1" s="1"/>
       <c r="S1" s="1"/>
     </row>
-    <row r="2" spans="1:19" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:19" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B2" s="3">
         <v>40</v>
       </c>
@@ -623,7 +625,7 @@
       <c r="R2" s="1"/>
       <c r="S2" s="1"/>
     </row>
-    <row r="3" spans="1:19" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:19" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B3" s="6">
         <f>B2+30</f>
         <v>70</v>
@@ -646,7 +648,7 @@
       <c r="R3" s="1"/>
       <c r="S3" s="1"/>
     </row>
-    <row r="4" spans="1:19" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:19" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B4" s="6">
         <f t="shared" ref="B4:B17" si="1">B3+30</f>
         <v>100</v>
@@ -669,7 +671,7 @@
       <c r="R4" s="1"/>
       <c r="S4" s="1"/>
     </row>
-    <row r="5" spans="1:19" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:19" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B5" s="6">
         <f t="shared" si="1"/>
         <v>130</v>
@@ -692,7 +694,7 @@
       <c r="R5" s="1"/>
       <c r="S5" s="1"/>
     </row>
-    <row r="6" spans="1:19" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:19" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B6" s="6">
         <f t="shared" si="1"/>
         <v>160</v>
@@ -715,7 +717,7 @@
       <c r="R6" s="1"/>
       <c r="S6" s="1"/>
     </row>
-    <row r="7" spans="1:19" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:19" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B7" s="6">
         <f t="shared" si="1"/>
         <v>190</v>
@@ -738,7 +740,7 @@
       <c r="R7" s="1"/>
       <c r="S7" s="1"/>
     </row>
-    <row r="8" spans="1:19" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:19" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B8" s="6">
         <f t="shared" si="1"/>
         <v>220</v>
@@ -761,7 +763,7 @@
       <c r="R8" s="1"/>
       <c r="S8" s="1"/>
     </row>
-    <row r="9" spans="1:19" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:19" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B9" s="6">
         <f t="shared" si="1"/>
         <v>250</v>
@@ -784,7 +786,7 @@
       <c r="R9" s="1"/>
       <c r="S9" s="1"/>
     </row>
-    <row r="10" spans="1:19" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:19" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B10" s="6">
         <f t="shared" si="1"/>
         <v>280</v>
@@ -807,7 +809,7 @@
       <c r="R10" s="1"/>
       <c r="S10" s="1"/>
     </row>
-    <row r="11" spans="1:19" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:19" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B11" s="6">
         <f t="shared" si="1"/>
         <v>310</v>
@@ -830,7 +832,7 @@
       <c r="R11" s="1"/>
       <c r="S11" s="1"/>
     </row>
-    <row r="12" spans="1:19" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:19" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B12" s="6">
         <f t="shared" si="1"/>
         <v>340</v>
@@ -853,7 +855,7 @@
       <c r="R12" s="1"/>
       <c r="S12" s="1"/>
     </row>
-    <row r="13" spans="1:19" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:19" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B13" s="6">
         <f t="shared" si="1"/>
         <v>370</v>
@@ -876,7 +878,7 @@
       <c r="R13" s="1"/>
       <c r="S13" s="1"/>
     </row>
-    <row r="14" spans="1:19" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:19" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
         <v>3</v>
       </c>
@@ -902,7 +904,7 @@
       <c r="R14" s="1"/>
       <c r="S14" s="1"/>
     </row>
-    <row r="15" spans="1:19" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:19" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="1" t="s">
         <v>0</v>
       </c>
@@ -932,7 +934,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="16" spans="1:19" ht="26.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:19" ht="26.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B16" s="6">
         <f t="shared" si="1"/>
         <v>460</v>
@@ -955,7 +957,7 @@
       <c r="R16" s="1"/>
       <c r="S16" s="1"/>
     </row>
-    <row r="17" spans="2:19" ht="26.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="2:19" ht="26.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B17" s="6">
         <f t="shared" si="1"/>
         <v>490</v>
@@ -978,10 +980,10 @@
       <c r="R17" s="1"/>
       <c r="S17" s="1"/>
     </row>
-    <row r="18" spans="2:19" s="1" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:19" s="1" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="I18" s="17"/>
     </row>
-    <row r="19" spans="2:19" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:19" x14ac:dyDescent="0.3">
       <c r="B19" s="1"/>
       <c r="C19" s="1"/>
       <c r="D19" s="1"/>
@@ -1005,4 +1007,28 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>